--- a/data/enzyme_kinetic.xlsx
+++ b/data/enzyme_kinetic.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,16 @@
           <t>activity</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>grp</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -376,6 +386,16 @@
       <c r="B2">
         <v>-38.05</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -384,6 +404,16 @@
       <c r="B3">
         <v>-43.07</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -392,6 +422,16 @@
       <c r="B4">
         <v>-51.55</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -400,6 +440,16 @@
       <c r="B5">
         <v>5.87</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -408,6 +458,16 @@
       <c r="B6">
         <v>-13.59</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -416,6 +476,16 @@
       <c r="B7">
         <v>5.38</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -424,6 +494,16 @@
       <c r="B8">
         <v>-12.21</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -432,6 +512,16 @@
       <c r="B9">
         <v>-6.41</v>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -440,6 +530,16 @@
       <c r="B10">
         <v>7.46</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -448,6 +548,16 @@
       <c r="B11">
         <v>15.98</v>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -456,6 +566,16 @@
       <c r="B12">
         <v>22.38</v>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -464,6 +584,16 @@
       <c r="B13">
         <v>3.91</v>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -472,6 +602,16 @@
       <c r="B14">
         <v>-2.06</v>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -480,6 +620,16 @@
       <c r="B15">
         <v>29.5</v>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -488,6 +638,16 @@
       <c r="B16">
         <v>35.4</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -496,6 +656,16 @@
       <c r="B17">
         <v>1.08</v>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>niedrig</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -504,6 +674,16 @@
       <c r="B18">
         <v>3.31</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -512,6 +692,16 @@
       <c r="B19">
         <v>8</v>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -520,6 +710,16 @@
       <c r="B20">
         <v>13.95</v>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -528,6 +728,16 @@
       <c r="B21">
         <v>14.39</v>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -536,6 +746,16 @@
       <c r="B22">
         <v>-5.58</v>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -544,6 +764,16 @@
       <c r="B23">
         <v>-16.77</v>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -552,6 +782,16 @@
       <c r="B24">
         <v>3.44</v>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -560,6 +800,16 @@
       <c r="B25">
         <v>-0.03</v>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -568,6 +818,16 @@
       <c r="B26">
         <v>-5.1</v>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -576,6 +836,16 @@
       <c r="B27">
         <v>-18.27</v>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -584,6 +854,16 @@
       <c r="B28">
         <v>-4.15</v>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -592,6 +872,16 @@
       <c r="B29">
         <v>-9.369999999999999</v>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>mittel</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -600,6 +890,16 @@
       <c r="B30">
         <v>-3.89</v>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -608,6 +908,16 @@
       <c r="B31">
         <v>-10.65</v>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -616,6 +926,16 @@
       <c r="B32">
         <v>-4.57</v>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -624,6 +944,16 @@
       <c r="B33">
         <v>-7.99</v>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -632,6 +962,16 @@
       <c r="B34">
         <v>0.8100000000000001</v>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -640,6 +980,16 @@
       <c r="B35">
         <v>2.3</v>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -648,6 +998,16 @@
       <c r="B36">
         <v>-5.03</v>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -656,6 +1016,16 @@
       <c r="B37">
         <v>-15.77</v>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Prokaryot</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -664,6 +1034,16 @@
       <c r="B38">
         <v>23</v>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -672,6 +1052,16 @@
       <c r="B39">
         <v>38.96</v>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -680,6 +1070,16 @@
       <c r="B40">
         <v>19.37</v>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -688,6 +1088,16 @@
       <c r="B41">
         <v>32.49</v>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -696,6 +1106,16 @@
       <c r="B42">
         <v>57.68</v>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -704,6 +1124,16 @@
       <c r="B43">
         <v>60.68</v>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -711,6 +1141,16 @@
       </c>
       <c r="B44">
         <v>69.31999999999999</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>hoch</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Eukaryot</t>
+        </is>
       </c>
     </row>
   </sheetData>
